--- a/docs/mcode/oncocore-TNMPathologicStageGroup.xlsx
+++ b/docs/mcode/oncocore-TNMPathologicStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -205,19 +205,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -231,329 +310,171 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>relatedcancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Cancer condition this information relates to.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -807,6 +728,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -859,7 +784,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/StageGroupVS</t>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/StageGroupVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -954,7 +879,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -963,18 +888,6 @@
     <t>targetSiteCode</t>
   </si>
   <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -990,7 +903,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/TNMTumorStagingSystemVS</t>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/TNMTumorStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1193,8 +1106,8 @@
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and a set of related observations or sometimes QuestionnaireResponse  from which the measure is derived.</t>
   </si>
   <si>
-    <t>profile:target.reference}
-profile:target.reference}profile:target.reference}</t>
+    <t xml:space="preserve">profile:target.reference}
+</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1537,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1569,10 +1482,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -2031,21 +1944,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2108,7 +2023,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2116,18 +2031,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2174,13 +2089,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2212,7 +2127,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2220,11 +2135,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2240,19 +2155,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2307,7 +2222,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2316,7 +2231,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2324,18 +2239,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2344,19 +2259,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2420,7 +2335,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2428,11 +2343,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2448,19 +2363,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2498,16 +2413,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2524,7 +2437,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2532,9 +2445,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2543,7 +2458,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2552,20 +2467,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2590,13 +2501,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2613,11 +2524,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2636,11 +2551,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2653,22 +2568,22 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2694,10 +2609,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2732,7 +2647,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2740,7 +2655,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2751,30 +2666,30 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2833,18 +2748,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2852,7 +2767,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2861,24 +2776,24 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2902,13 +2817,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2937,22 +2852,22 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2971,16 +2886,16 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3006,13 +2921,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -3035,7 +2950,7 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3044,49 +2959,49 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3110,13 +3025,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3145,29 +3060,29 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3179,17 +3094,15 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3226,14 +3139,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -3250,7 +3165,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3258,20 +3173,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3283,13 +3196,17 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3337,15 +3254,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3356,7 +3269,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3364,15 +3277,15 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -3381,24 +3294,26 @@
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3434,16 +3349,14 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
@@ -3457,10 +3370,10 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3468,18 +3381,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3488,21 +3403,19 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3561,18 +3474,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3580,7 +3493,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3589,24 +3502,22 @@
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3630,13 +3541,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3665,29 +3576,29 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3699,16 +3610,16 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3734,13 +3645,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3772,15 +3683,15 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3788,7 +3699,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3803,24 +3714,26 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3838,13 +3751,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3873,18 +3786,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3904,18 +3817,20 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3975,10 +3890,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3986,18 +3901,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4006,27 +3921,27 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>42</v>
@@ -4079,10 +3994,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4090,7 +4005,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4098,10 +4013,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4113,19 +4028,17 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4162,14 +4075,16 @@
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
@@ -4183,10 +4098,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4194,17 +4109,15 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4219,16 +4132,20 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4287,10 +4204,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4298,7 +4215,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4318,19 +4235,23 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4389,52 +4310,54 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4481,11 +4404,15 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4493,18 +4420,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4524,29 +4451,27 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4599,18 +4524,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4624,7 +4549,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
@@ -4633,18 +4558,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4703,18 +4630,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4737,24 +4664,24 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4807,18 +4734,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4829,7 +4756,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4841,17 +4768,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4911,18 +4838,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4930,13 +4857,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4945,20 +4872,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4982,13 +4905,11 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -5005,11 +4926,15 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5017,10 +4942,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5028,7 +4953,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5048,22 +4973,22 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5088,13 +5013,11 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5117,16 +5040,16 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5134,15 +5057,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5154,22 +5077,20 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5194,13 +5115,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5217,15 +5138,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5233,18 +5150,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5267,17 +5184,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5337,18 +5254,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5359,7 +5276,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5368,22 +5285,22 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5408,13 +5325,11 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5431,11 +5346,15 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5443,18 +5362,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5468,27 +5387,29 @@
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5512,13 +5433,11 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5547,18 +5466,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5569,7 +5488,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5578,21 +5497,21 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5639,11 +5558,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5651,18 +5574,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5673,7 +5596,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5682,18 +5605,20 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5718,11 +5643,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5740,7 +5667,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5755,10 +5682,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5766,7 +5693,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5777,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5789,19 +5716,19 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5826,11 +5753,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5847,22 +5776,26 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH41" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5870,11 +5803,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5893,18 +5826,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5928,13 +5859,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5963,10 +5894,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5974,18 +5905,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5997,18 +5928,18 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6067,10 +5998,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6078,43 +6009,41 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6138,11 +6067,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6159,15 +6090,11 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6175,10 +6102,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6186,7 +6113,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6209,13 +6136,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6271,16 +6198,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6288,18 +6215,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6311,17 +6238,15 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6375,16 +6300,16 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6392,7 +6317,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6403,7 +6328,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6412,22 +6337,22 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6452,13 +6377,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6487,10 +6412,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6498,7 +6423,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6518,22 +6443,20 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6593,10 +6516,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6604,7 +6527,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6627,20 +6550,16 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6664,11 +6583,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6697,10 +6618,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6708,7 +6629,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6719,7 +6640,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6728,21 +6649,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6778,25 +6701,23 @@
         <v>42</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
@@ -6805,10 +6726,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6816,9 +6737,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6827,7 +6750,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6836,20 +6759,18 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6898,13 +6819,13 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
@@ -6913,10 +6834,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6924,7 +6845,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6935,7 +6856,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6947,20 +6868,16 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7007,26 +6924,22 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7034,18 +6947,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7057,15 +6970,17 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7128,7 +7043,7 @@
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7136,11 +7051,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7153,22 +7068,22 @@
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7232,7 +7147,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7240,24 +7155,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>42</v>
@@ -7266,21 +7181,23 @@
         <v>67</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7298,13 +7215,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7333,10 +7250,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7344,7 +7261,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7352,7 +7269,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7367,13 +7284,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7429,16 +7346,16 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7446,9 +7363,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7466,16 +7385,16 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7525,22 +7444,26 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH57" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7571,20 +7494,16 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7608,13 +7527,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7643,10 +7562,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7654,18 +7573,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7677,18 +7596,18 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>365</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7750,7 +7669,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7758,38 +7677,40 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7849,10 +7770,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7860,7 +7781,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7880,29 +7801,29 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>42</v>
@@ -7920,36 +7841,34 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7957,10 +7876,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>380</v>
+        <v>88</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7968,17 +7887,15 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>51</v>
@@ -7990,16 +7907,16 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8049,15 +7966,11 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8065,10 +7978,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8076,9 +7989,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8096,16 +8011,16 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>62</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
+        <v>379</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8155,11 +8070,15 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8167,10 +8086,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8178,18 +8097,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8201,17 +8120,15 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8274,7 +8191,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8282,11 +8199,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8299,22 +8216,22 @@
         <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8378,7 +8295,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8386,49 +8303,47 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>42</v>
@@ -8446,13 +8361,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8481,10 +8396,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>88</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8492,7 +8407,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8500,7 +8415,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>51</v>
@@ -8515,22 +8430,26 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>42</v>
@@ -8548,13 +8467,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8583,10 +8502,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8594,17 +8513,15 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>51</v>
@@ -8616,16 +8533,16 @@
         <v>42</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8675,15 +8592,11 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8691,10 +8604,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8702,7 +8615,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8713,7 +8626,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8722,19 +8635,23 @@
         <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8781,11 +8698,15 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8793,10 +8714,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8804,18 +8725,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8827,17 +8748,15 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -8900,7 +8819,7 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8908,11 +8827,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8925,22 +8844,22 @@
         <v>42</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9004,7 +8923,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9012,49 +8931,47 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>42</v>
@@ -9072,13 +8989,13 @@
         <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -9107,10 +9024,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>396</v>
+        <v>88</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9118,7 +9035,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9138,19 +9055,21 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9174,13 +9093,13 @@
         <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9203,28 +9122,26 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9245,16 +9162,20 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9301,15 +9222,11 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9317,10 +9234,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9328,7 +9245,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9351,16 +9268,20 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>62</v>
+        <v>402</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9384,13 +9305,11 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9413,16 +9332,16 @@
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9430,11 +9349,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9453,18 +9372,20 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>68</v>
+        <v>405</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9523,10 +9444,10 @@
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9534,40 +9455,38 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9630,7 +9549,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9638,18 +9557,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9661,26 +9580,24 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>389</v>
+        <v>92</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>390</v>
+        <v>144</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>42</v>
@@ -9698,13 +9615,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9733,10 +9650,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9744,38 +9661,40 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>409</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -9838,7 +9757,7 @@
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>401</v>
+        <v>88</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9846,7 +9765,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9857,7 +9776,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9866,23 +9785,19 @@
         <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -9929,26 +9844,22 @@
       <c r="AD80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE80" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="AE80" s="2"/>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG80" s="2"/>
       <c r="AH80" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -9956,7 +9867,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9979,13 +9890,13 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10041,16 +9952,16 @@
       </c>
       <c r="AG81" s="2"/>
       <c r="AH81" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10058,18 +9969,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -10081,18 +9992,20 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
@@ -10116,13 +10029,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10151,10 +10064,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10162,41 +10075,41 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>67</v>
+        <v>336</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10258,7 +10171,7 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10266,7 +10179,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10274,7 +10187,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -10286,21 +10199,19 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10324,13 +10235,13 @@
         <v>42</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>42</v>
@@ -10353,1165 +10264,23 @@
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X86" s="2"/>
-      <c r="Y86" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" s="2"/>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" s="2"/>
-      <c r="AH86" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" s="2"/>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" s="2"/>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE89" s="2"/>
-      <c r="AF89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG89" s="2"/>
-      <c r="AH89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE90" s="2"/>
-      <c r="AF90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG90" s="2"/>
-      <c r="AH90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE91" s="2"/>
-      <c r="AF91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG91" s="2"/>
-      <c r="AH91" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE92" s="2"/>
-      <c r="AF92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG92" s="2"/>
-      <c r="AH92" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE93" s="2"/>
-      <c r="AF93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG93" s="2"/>
-      <c r="AH93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE94" s="2"/>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" s="2"/>
-      <c r="AH94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE95" s="2"/>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" s="2"/>
-      <c r="AH95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL95" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL95">
+  <autoFilter ref="A1:AL84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11521,7 +10290,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
